--- a/TuoiNuoc-Autosaved.xlsx
+++ b/TuoiNuoc-Autosaved.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\All folder\Hackathon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hackerthon_Api\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913CFAFE-FC42-42E7-B559-1D84EF8DE541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="240" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
   <si>
     <t>Vùng khí hậu</t>
   </si>
@@ -187,87 +188,27 @@
     <t>Mùa vụ</t>
   </si>
   <si>
-    <t>Crop dev. sân khấu</t>
-  </si>
-  <si>
-    <t>0,35</t>
-  </si>
-  <si>
-    <t>0,75</t>
-  </si>
-  <si>
-    <t>1,15</t>
-  </si>
-  <si>
-    <t>0,45</t>
-  </si>
-  <si>
-    <t>0,70</t>
-  </si>
-  <si>
-    <t>0,90</t>
-  </si>
-  <si>
     <t>Đậu khô</t>
   </si>
   <si>
-    <t>0,30</t>
-  </si>
-  <si>
     <t>Bắp cải / cà rốt</t>
   </si>
   <si>
-    <t>1,05</t>
-  </si>
-  <si>
     <t>Dưa chuột / bí</t>
   </si>
   <si>
     <t>Cà tím / cà chua</t>
   </si>
   <si>
-    <t>0,80</t>
-  </si>
-  <si>
-    <t>0,65</t>
-  </si>
-  <si>
     <t>Đậu lăng / Xung</t>
   </si>
   <si>
-    <t>0,50</t>
-  </si>
-  <si>
     <t>Rau diếp / rau bina</t>
   </si>
   <si>
-    <t>0,60</t>
-  </si>
-  <si>
-    <t>1,00</t>
-  </si>
-  <si>
-    <t>0,40</t>
-  </si>
-  <si>
-    <t>Hành, xanh</t>
-  </si>
-  <si>
     <t>Hành khô</t>
   </si>
   <si>
-    <t>0,85</t>
-  </si>
-  <si>
-    <t>Hạt đậu, tươi</t>
-  </si>
-  <si>
-    <t>Hạt tiêu, tươi</t>
-  </si>
-  <si>
-    <t>0,55</t>
-  </si>
-  <si>
     <t>Thuốc lá</t>
   </si>
   <si>
@@ -311,13 +252,43 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>Nhiệt độ trung bình hằng ngày</t>
+  </si>
+  <si>
+    <t>Lượng nước</t>
+  </si>
+  <si>
+    <t>Thấp (dưới 15 ° C)</t>
+  </si>
+  <si>
+    <t>Trung bình (15-25 ° C)</t>
+  </si>
+  <si>
+    <t>Cao (hơn 25 ° C)</t>
+  </si>
+  <si>
+    <t>Ngô. ngọt ngào</t>
+  </si>
+  <si>
+    <t>Ngô. ngũ cốc</t>
+  </si>
+  <si>
+    <t>Hành. xanh</t>
+  </si>
+  <si>
+    <t>Hạt đậu. tươi</t>
+  </si>
+  <si>
+    <t>Hạt tiêu. tươi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +309,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -353,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -365,43 +349,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -434,17 +381,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -463,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -486,10 +422,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,17 +447,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -529,44 +484,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -848,320 +785,384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="14"/>
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="17">
         <v>5</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="17">
         <v>7.5</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="17">
         <v>9.6</v>
       </c>
+      <c r="E4" s="33"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="17">
         <v>4.5</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="17">
         <v>6.5</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="17">
         <v>8.5</v>
       </c>
+      <c r="E5" s="33"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="17">
         <v>3.5</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="17">
         <v>5.5</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="17">
         <v>7.5</v>
       </c>
+      <c r="E6" s="33"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="17">
         <v>1.5</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="17">
         <v>3.5</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="17">
         <v>5.5</v>
       </c>
+      <c r="E7" s="33"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+    <row r="8" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="15"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="15"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="15"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="15"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="15"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="15"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E23" s="33"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="15"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E24" s="33"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C28" s="6"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C29" s="3"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C30" s="3"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C32" s="3"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="3"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="54" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M54" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
+    <row r="54" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M54" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="M54:Q54"/>
     <mergeCell ref="F24:J24"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1169,104 +1170,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
       <c r="B2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="7">
         <v>100</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="19">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="7">
         <v>400</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="19">
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="7">
         <v>600</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="19">
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="7">
         <v>1200</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="19">
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="7">
         <v>1500</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="19">
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="34"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1278,18 +1279,184 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDAB2FA-539F-481E-B0C0-8C193A239746}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="37">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="37">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="37">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="37">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="37">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="37">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="37">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="37">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="37">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="37">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="37">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="1:6" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -1305,43 +1472,43 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="26">
         <v>135</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="26">
         <v>15</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="26">
         <v>27</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="26">
         <v>58</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="26">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -1361,7 +1528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
@@ -1381,7 +1548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
@@ -1401,7 +1568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
@@ -1421,7 +1588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>27</v>
       </c>
@@ -1441,7 +1608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
@@ -1461,7 +1628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
@@ -1481,7 +1648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -1501,7 +1668,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1521,7 +1688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
@@ -1541,7 +1708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1561,7 +1728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -1581,7 +1748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1601,7 +1768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
@@ -1621,7 +1788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>37</v>
       </c>
@@ -1641,7 +1808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
@@ -1661,7 +1828,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
@@ -1681,7 +1848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>40</v>
       </c>
@@ -1701,7 +1868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
@@ -1721,7 +1888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -1741,7 +1908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>43</v>
       </c>
@@ -1761,7 +1928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>44</v>
       </c>
@@ -1781,7 +1948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>45</v>
       </c>
@@ -1801,7 +1968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>46</v>
       </c>
@@ -1821,7 +1988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>47</v>
       </c>
@@ -1841,7 +2008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>48</v>
       </c>
@@ -1861,7 +2028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>49</v>
       </c>
@@ -1881,7 +2048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>50</v>
       </c>
@@ -1901,43 +2068,43 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
@@ -1945,7 +2112,7 @@
         <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>20</v>
@@ -1954,456 +2121,456 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>57</v>
+      <c r="B3" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.7</v>
       </c>
       <c r="D3" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.7</v>
       </c>
       <c r="D4" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E4" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="B7" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>54</v>
+      <c r="B9" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.75</v>
       </c>
       <c r="D9" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E9" s="7">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>54</v>
+      <c r="B10" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.75</v>
       </c>
       <c r="D10" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>57</v>
+      <c r="B15" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.7</v>
       </c>
       <c r="D15" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E15" s="7">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>54</v>
+      <c r="B23" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.75</v>
       </c>
       <c r="D23" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E23" s="7">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>54</v>
+      <c r="B24" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.75</v>
       </c>
       <c r="D24" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E24" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.75</v>
       </c>
       <c r="D27" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="E27" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2413,65 +2580,65 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>1700</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>1600</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>1900</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="30"/>
+    <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
